--- a/financial_data.xlsx
+++ b/financial_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="115">
   <si>
     <t>Study Info</t>
   </si>
@@ -82,10 +82,10 @@
     <t>Companies with good FCF (RM mil)</t>
   </si>
   <si>
-    <t>Dividend Pay-out ratio â‰¤ 75%</t>
-  </si>
-  <si>
-    <t>Dividend Yield â‰¥ 10-year Malaysia Government Bond (3.43%)</t>
+    <t>Dividend Pay-out ratio &lt; 75%</t>
+  </si>
+  <si>
+    <t>Dividend Yield &gt; 10-year Malaysia Government Bond (3.43%)</t>
   </si>
   <si>
     <t>Adam Khoo</t>
@@ -235,13 +235,109 @@
     <t>2019</t>
   </si>
   <si>
+    <t>3,569,500,000.0</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>-0.72</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>uptrend</t>
+  </si>
+  <si>
     <t>2015, 2016, 2017, 2018, 2019</t>
   </si>
   <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>62.66</t>
+  </si>
+  <si>
+    <t>18.23</t>
+  </si>
+  <si>
+    <t>292,426,000</t>
+  </si>
+  <si>
+    <t>-58,241,000</t>
+  </si>
+  <si>
+    <t>93.21</t>
+  </si>
+  <si>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>1,284.0</t>
+  </si>
+  <si>
+    <t>3,569.5</t>
+  </si>
+  <si>
+    <t>385.11</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>190,105,000</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
     <t>19.34</t>
   </si>
   <si>
     <t>5.07%</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>-22.49</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.16</t>
   </si>
   <si>
     <t>32.91</t>
@@ -641,8 +737,8 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>3569500000</v>
+      <c r="B6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -654,16 +750,16 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.8918933309305078</v>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
-        <v>-0.7220507938592172</v>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -675,16 +771,16 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.513831006035156</v>
+      <c r="B11" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>11825700</v>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -692,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -704,8 +800,8 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.2100037779326496</v>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -717,8 +813,8 @@
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
-        <v>18.00333333333333</v>
+      <c r="B17" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -730,16 +826,16 @@
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
-        <v>3.422178121000331</v>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
-        <v>62.66008139551605</v>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -751,35 +847,41 @@
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2">
-        <v>18.22578866886214</v>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24">
-        <v>292426000</v>
+      <c r="B24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25">
-        <v>-58241000</v>
+      <c r="B25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
@@ -790,8 +892,8 @@
       <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
-        <v>0.9614581415533521</v>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -803,8 +905,8 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1">
-        <v>0.8800933508228289</v>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -821,32 +923,32 @@
       <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37">
-        <v>2.78</v>
+      <c r="B37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B38">
-        <v>1284</v>
+      <c r="B38" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="B39">
-        <v>3569.5</v>
+      <c r="B39" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B40">
-        <v>385.111</v>
+      <c r="B40" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -858,8 +960,8 @@
       <c r="A42" t="s">
         <v>35</v>
       </c>
-      <c r="B42">
-        <v>0.8123481308411215</v>
+      <c r="B42" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -871,40 +973,40 @@
       <c r="A44" t="s">
         <v>37</v>
       </c>
-      <c r="B44">
-        <v>190105000</v>
+      <c r="B44" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
-      <c r="B45">
-        <v>0.1480568535825545</v>
+      <c r="B45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>39</v>
       </c>
-      <c r="B46">
-        <v>0.1404922118380062</v>
+      <c r="B46" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>40</v>
       </c>
-      <c r="B47">
-        <v>0.1254992211838006</v>
+      <c r="B47" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48">
-        <v>5.07</v>
+      <c r="B48" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -917,15 +1019,15 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
-      <c r="B52">
-        <v>3.422178121000331</v>
+      <c r="B52" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -933,39 +1035,39 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54">
-        <v>0.02760564836498557</v>
+      <c r="B54" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-      <c r="B55">
-        <v>0.1822578866886214</v>
+      <c r="B55" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56">
-        <v>0.8918933309305078</v>
+      <c r="B56" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57">
-        <v>-0.3426934052779588</v>
+      <c r="B57" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -977,8 +1079,8 @@
       <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B59">
-        <v>0.790706655865564</v>
+      <c r="B59" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -995,32 +1097,32 @@
       <c r="A63" t="s">
         <v>54</v>
       </c>
-      <c r="B63">
-        <v>0.8880712000884676</v>
+      <c r="B63" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>55</v>
       </c>
-      <c r="B64">
-        <v>0.8918933309305078</v>
+      <c r="B64" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B65">
-        <v>-22.48517441860465</v>
+      <c r="B65" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>57</v>
       </c>
-      <c r="B66">
-        <v>1.513831006035156</v>
+      <c r="B66" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1032,32 +1134,32 @@
       <c r="A69" t="s">
         <v>59</v>
       </c>
-      <c r="B69">
-        <v>0.07250204419114102</v>
+      <c r="B69" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
-      <c r="B70">
-        <v>0.1822578866886214</v>
+      <c r="B70" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>61</v>
       </c>
-      <c r="B71">
-        <v>0.1604039542096763</v>
+      <c r="B71" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B72">
-        <v>0.02760564836498557</v>
+      <c r="B72" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1070,7 +1172,7 @@
         <v>64</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1078,7 +1180,7 @@
         <v>65</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1086,7 +1188,7 @@
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1094,7 +1196,7 @@
         <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1102,7 +1204,7 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1110,7 +1212,7 @@
         <v>69</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1118,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
